--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03824618787753</v>
+        <v>1.287649333333333</v>
       </c>
       <c r="N2">
-        <v>1.03824618787753</v>
+        <v>3.862948</v>
       </c>
       <c r="O2">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="P2">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="Q2">
-        <v>34.96886431922388</v>
+        <v>192.7049134707426</v>
       </c>
       <c r="R2">
-        <v>34.96886431922388</v>
+        <v>1734.344221236684</v>
       </c>
       <c r="S2">
-        <v>0.04252225665324563</v>
+        <v>0.1107573536963724</v>
       </c>
       <c r="T2">
-        <v>0.04252225665324563</v>
+        <v>0.1107573536963724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.50817424213668</v>
+        <v>4.622908</v>
       </c>
       <c r="N3">
-        <v>4.50817424213668</v>
+        <v>13.868724</v>
       </c>
       <c r="O3">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="P3">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="Q3">
-        <v>151.8384899856653</v>
+        <v>691.8475885177878</v>
       </c>
       <c r="R3">
-        <v>151.8384899856653</v>
+        <v>6226.628296660091</v>
       </c>
       <c r="S3">
-        <v>0.1846361146324762</v>
+        <v>0.3976401363376799</v>
       </c>
       <c r="T3">
-        <v>0.1846361146324762</v>
+        <v>0.3976401363376799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.892183385753439</v>
+        <v>0.9735329999999999</v>
       </c>
       <c r="N4">
-        <v>0.892183385753439</v>
+        <v>2.920599</v>
       </c>
       <c r="O4">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="P4">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="Q4">
-        <v>30.04936606418625</v>
+        <v>145.695406093413</v>
       </c>
       <c r="R4">
-        <v>30.04936606418625</v>
+        <v>1311.258654840717</v>
       </c>
       <c r="S4">
-        <v>0.0365401302251104</v>
+        <v>0.08373858940070415</v>
       </c>
       <c r="T4">
-        <v>0.0365401302251104</v>
+        <v>0.08373858940070417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03824618787753</v>
+        <v>1.287649333333333</v>
       </c>
       <c r="N5">
-        <v>1.03824618787753</v>
+        <v>3.862948</v>
       </c>
       <c r="O5">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="P5">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="Q5">
-        <v>52.03359001275415</v>
+        <v>67.90306047095022</v>
       </c>
       <c r="R5">
-        <v>52.03359001275415</v>
+        <v>611.127544238552</v>
       </c>
       <c r="S5">
-        <v>0.06327302050515084</v>
+        <v>0.0390273561280472</v>
       </c>
       <c r="T5">
-        <v>0.06327302050515084</v>
+        <v>0.0390273561280472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.50817424213668</v>
+        <v>4.622908</v>
       </c>
       <c r="N6">
-        <v>4.50817424213668</v>
+        <v>13.868724</v>
       </c>
       <c r="O6">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="P6">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="Q6">
-        <v>225.9353253210008</v>
+        <v>243.7850067945307</v>
       </c>
       <c r="R6">
-        <v>225.9353253210008</v>
+        <v>2194.065061150776</v>
       </c>
       <c r="S6">
-        <v>0.2747381156743088</v>
+        <v>0.1401156915882883</v>
       </c>
       <c r="T6">
-        <v>0.2747381156743088</v>
+        <v>0.1401156915882883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.892183385753439</v>
+        <v>0.9735329999999999</v>
       </c>
       <c r="N7">
-        <v>0.892183385753439</v>
+        <v>2.920599</v>
       </c>
       <c r="O7">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="P7">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="Q7">
-        <v>44.713387877097</v>
+        <v>51.33841058911399</v>
       </c>
       <c r="R7">
-        <v>44.713387877097</v>
+        <v>462.0456953020259</v>
       </c>
       <c r="S7">
-        <v>0.05437163008181557</v>
+        <v>0.02950680601453048</v>
       </c>
       <c r="T7">
-        <v>0.05437163008181557</v>
+        <v>0.02950680601453048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03824618787753</v>
+        <v>1.287649333333333</v>
       </c>
       <c r="N8">
-        <v>1.03824618787753</v>
+        <v>3.862948</v>
       </c>
       <c r="O8">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="P8">
-        <v>0.1612533116783711</v>
+        <v>0.1870471291026542</v>
       </c>
       <c r="Q8">
-        <v>45.60681010780279</v>
+        <v>64.83227562846622</v>
       </c>
       <c r="R8">
-        <v>45.60681010780279</v>
+        <v>583.490480656196</v>
       </c>
       <c r="S8">
-        <v>0.05545803451997462</v>
+        <v>0.03726241927823461</v>
       </c>
       <c r="T8">
-        <v>0.05545803451997462</v>
+        <v>0.03726241927823462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.50817424213668</v>
+        <v>4.622908</v>
       </c>
       <c r="N9">
-        <v>4.50817424213668</v>
+        <v>13.868724</v>
       </c>
       <c r="O9">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="P9">
-        <v>0.7001788541634609</v>
+        <v>0.6715350578151914</v>
       </c>
       <c r="Q9">
-        <v>198.0295704377467</v>
+        <v>232.7603004190387</v>
       </c>
       <c r="R9">
-        <v>198.0295704377467</v>
+        <v>2094.842703771348</v>
       </c>
       <c r="S9">
-        <v>0.2408046238566761</v>
+        <v>0.1337792298892232</v>
       </c>
       <c r="T9">
-        <v>0.2408046238566761</v>
+        <v>0.1337792298892232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.892183385753439</v>
+        <v>0.9735329999999999</v>
       </c>
       <c r="N10">
-        <v>0.892183385753439</v>
+        <v>2.920599</v>
       </c>
       <c r="O10">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="P10">
-        <v>0.138567834158168</v>
+        <v>0.1414178130821545</v>
       </c>
       <c r="Q10">
-        <v>39.19074178213438</v>
+        <v>49.01673006424699</v>
       </c>
       <c r="R10">
-        <v>39.19074178213438</v>
+        <v>441.150570578223</v>
       </c>
       <c r="S10">
-        <v>0.04765607385124201</v>
+        <v>0.02817241766691985</v>
       </c>
       <c r="T10">
-        <v>0.04765607385124201</v>
+        <v>0.02817241766691985</v>
       </c>
     </row>
   </sheetData>
